--- a/[ASO] Romero/Memoria.xlsx
+++ b/[ASO] Romero/Memoria.xlsx
@@ -7,11 +7,12 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja1 (2)" sheetId="4" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId3"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -52,7 +53,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,6 +67,20 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -85,10 +100,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -100,38 +116,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="4">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -160,6 +152,33 @@
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -171,11 +190,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:B5" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:B5" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <autoFilter ref="A1:B5"/>
   <tableColumns count="2">
-    <tableColumn id="1" name=" Método de Administración de Memoria " dataDxfId="3"/>
-    <tableColumn id="2" name=" Descripción " dataDxfId="2"/>
+    <tableColumn id="1" name=" Método de Administración de Memoria " dataDxfId="1"/>
+    <tableColumn id="2" name=" Descripción " dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -468,9 +487,331 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="11.42578125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="6">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6">
+        <f>2^A1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <f>2^A2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <f>2^A3</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6">
+        <f>2^A4</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6">
+        <f>2^A5</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6">
+        <f>2^A6</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6">
+        <f>2^A7</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6">
+        <f>2^A8</f>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6">
+        <f>2^A9</f>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6">
+        <f>2^A10</f>
+        <v>512</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6">
+        <f>2^A11</f>
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6">
+        <f>2^A12</f>
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6">
+        <f>2^A13</f>
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6">
+        <f>2^A14</f>
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6">
+        <f>2^A15</f>
+        <v>16384</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6">
+        <f>2^A16</f>
+        <v>32768</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6">
+        <f>2^A17</f>
+        <v>65536</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6">
+        <f>2^A18</f>
+        <v>131072</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6">
+        <f>2^A19</f>
+        <v>262144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6">
+        <f>2^A20</f>
+        <v>524288</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6">
+        <f>2^A21</f>
+        <v>1048576</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6">
+        <f>2^A22</f>
+        <v>2097152</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6">
+        <f>2^A23</f>
+        <v>4194304</v>
+      </c>
+      <c r="D23" s="5">
+        <f>B23/1024</f>
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6">
+        <f>2^A24</f>
+        <v>8388608</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6">
+        <f>2^A25</f>
+        <v>16777216</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6">
+        <f>2^A26</f>
+        <v>33554432</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6">
+        <f>2^A27</f>
+        <v>67108864</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>27</v>
+      </c>
+      <c r="B28" s="6">
+        <f>2^A28</f>
+        <v>134217728</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6">
+        <f>2^A29</f>
+        <v>268435456</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>29</v>
+      </c>
+      <c r="B30" s="6">
+        <f>2^A30</f>
+        <v>536870912</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>30</v>
+      </c>
+      <c r="B31" s="6">
+        <f>2^A31</f>
+        <v>1073741824</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <v>31</v>
+      </c>
+      <c r="B32" s="6">
+        <f>2^A32</f>
+        <v>2147483648</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
+        <v>32</v>
+      </c>
+      <c r="B33" s="6">
+        <f>2^A33</f>
+        <v>4294967296</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -488,7 +829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -496,7 +837,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="93.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -504,7 +845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="93.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -512,7 +853,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -526,18 +867,6 @@
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -551,4 +880,16 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>